--- a/Équipe1.xlsx
+++ b/Équipe1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="78">
   <si>
     <t>Membres</t>
   </si>
@@ -206,7 +206,58 @@
     <t>Ajustement de BD</t>
   </si>
   <si>
-    <t>Arranger le projet pour qu'il fonctionne avec les parties des autres</t>
+    <t>Programmation Jeu</t>
+  </si>
+  <si>
+    <t>Description Narrative Authentification</t>
+  </si>
+  <si>
+    <t>Réunion SCRUM</t>
+  </si>
+  <si>
+    <t>Réunion PROF</t>
+  </si>
+  <si>
+    <t>DCO + DS</t>
+  </si>
+  <si>
+    <t>Manipulation de BD</t>
+  </si>
+  <si>
+    <t>USE CASE</t>
+  </si>
+  <si>
+    <t>PLANIFFICATION DES TACHES</t>
+  </si>
+  <si>
+    <t>Rencontre Client</t>
+  </si>
+  <si>
+    <t>Changements DCC et DCR</t>
+  </si>
+  <si>
+    <t>Programmation Equipe</t>
+  </si>
+  <si>
+    <t>Repondre aux questions et divers</t>
+  </si>
+  <si>
+    <t>Repondre aux questions et transmettre informations</t>
+  </si>
+  <si>
+    <t>Remplir feuille de temps</t>
+  </si>
+  <si>
+    <t>Programmer Authentification</t>
+  </si>
+  <si>
+    <t>Programmer Employé</t>
+  </si>
+  <si>
+    <t>Package 3, debut DCC</t>
+  </si>
+  <si>
+    <t>script de BD</t>
   </si>
 </sst>
 </file>
@@ -849,7 +900,7 @@
   </sheetPr>
   <dimension ref="B3:P60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -1681,7 +1732,7 @@
   <dimension ref="B3:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1748,27 +1799,27 @@
       </c>
       <c r="J5" s="15">
         <f>SUMIF($C5:$C60,J$4,$F$5:$F$60)</f>
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="K5" s="15">
         <f t="shared" ref="K5:N5" si="0">SUMIF($C5:$C60,K$4,$F$5:$F$60)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N5" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="O5" s="15">
         <f>SUMIF($C5:$C60,O$4,$F$5:$F$60)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="18" x14ac:dyDescent="0.35">
@@ -1833,7 +1884,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>15</v>
@@ -1875,15 +1926,15 @@
       </c>
       <c r="J9" s="15">
         <f>SUMIF($D5:$D60,J$8,$F$5:$F$60)</f>
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" ref="K9:P9" si="1">SUMIF($D5:$D60,K$8,$F$5:$F$60)</f>
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>16</v>
       </c>
       <c r="M9" s="15">
         <f t="shared" si="1"/>
@@ -1891,11 +1942,11 @@
       </c>
       <c r="N9" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="P9" s="15">
         <f t="shared" si="1"/>
@@ -1916,7 +1967,7 @@
         <v>59</v>
       </c>
       <c r="F10" s="16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
@@ -1933,204 +1984,484 @@
         <v>60</v>
       </c>
       <c r="F11" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="12">
+        <v>42282</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="16">
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="16"/>
-    </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="16"/>
+      <c r="B27" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="16"/>
+      <c r="B28" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="16"/>
+      <c r="B29" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="16"/>
+      <c r="B30" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="16"/>
+      <c r="B31" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="16"/>
+      <c r="B32" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="12"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="16"/>
+      <c r="B33" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="12"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="16"/>
+      <c r="B34" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="12"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="16"/>
+      <c r="B35" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="12"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="16"/>
+      <c r="B36" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="12"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="16"/>
+      <c r="B37" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="12"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="16"/>
+      <c r="B38" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="12"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="16"/>
+      <c r="B39" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="12"/>

--- a/Équipe1.xlsx
+++ b/Équipe1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="79">
   <si>
     <t>Membres</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>script de BD</t>
+  </si>
+  <si>
+    <t>Continuer ajouter jeu</t>
   </si>
 </sst>
 </file>
@@ -1731,8 +1734,8 @@
   </sheetPr>
   <dimension ref="B3:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1807,7 +1810,7 @@
       </c>
       <c r="L5" s="15">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" si="0"/>
@@ -1934,7 +1937,7 @@
       </c>
       <c r="L9" s="15">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M9" s="15">
         <f t="shared" si="1"/>
@@ -2464,11 +2467,21 @@
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="12"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="16"/>
+      <c r="B40" s="12">
+        <v>42283</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="12"/>

--- a/Équipe1.xlsx
+++ b/Équipe1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="85">
   <si>
     <t>Membres</t>
   </si>
@@ -218,9 +218,6 @@
     <t>Réunion PROF</t>
   </si>
   <si>
-    <t>DCO + DS</t>
-  </si>
-  <si>
     <t>Manipulation de BD</t>
   </si>
   <si>
@@ -261,6 +258,27 @@
   </si>
   <si>
     <t>Continuer ajouter jeu</t>
+  </si>
+  <si>
+    <t>DCO + DS + DN</t>
+  </si>
+  <si>
+    <t>Progammation Employe</t>
+  </si>
+  <si>
+    <t>Documentation DCC Equipe</t>
+  </si>
+  <si>
+    <t>1ere Recontre pacakage test</t>
+  </si>
+  <si>
+    <t>1ème Recontre pacakage test</t>
+  </si>
+  <si>
+    <t>Continuer la base de données Employe</t>
+  </si>
+  <si>
+    <t>Prototype interface papier test</t>
   </si>
 </sst>
 </file>
@@ -1734,8 +1752,8 @@
   </sheetPr>
   <dimension ref="B3:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1802,27 +1820,27 @@
       </c>
       <c r="J5" s="15">
         <f>SUMIF($C5:$C60,J$4,$F$5:$F$60)</f>
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="K5" s="15">
         <f t="shared" ref="K5:N5" si="0">SUMIF($C5:$C60,K$4,$F$5:$F$60)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N5" s="15">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="O5" s="15">
         <f>SUMIF($C5:$C60,O$4,$F$5:$F$60)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="18" x14ac:dyDescent="0.35">
@@ -1929,23 +1947,23 @@
       </c>
       <c r="J9" s="15">
         <f>SUMIF($D5:$D60,J$8,$F$5:$F$60)</f>
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" ref="K9:P9" si="1">SUMIF($D5:$D60,K$8,$F$5:$F$60)</f>
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M9" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N9" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="O9" s="15">
         <f t="shared" si="1"/>
@@ -2222,10 +2240,10 @@
         <v>15</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F25" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
@@ -2239,7 +2257,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" s="16">
         <v>1.5</v>
@@ -2256,7 +2274,7 @@
         <v>15</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F27" s="16">
         <v>0.5</v>
@@ -2273,7 +2291,7 @@
         <v>18</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="16">
         <v>0.5</v>
@@ -2290,7 +2308,7 @@
         <v>18</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F29" s="16">
         <v>0.5</v>
@@ -2307,7 +2325,7 @@
         <v>23</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F30" s="16">
         <v>0.5</v>
@@ -2324,7 +2342,7 @@
         <v>23</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31" s="16">
         <v>0.5</v>
@@ -2341,7 +2359,7 @@
         <v>15</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F32" s="16">
         <v>0.5</v>
@@ -2358,7 +2376,7 @@
         <v>18</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F33" s="16">
         <v>1</v>
@@ -2375,7 +2393,7 @@
         <v>16</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F34" s="16">
         <v>1</v>
@@ -2392,7 +2410,7 @@
         <v>18</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F35" s="16">
         <v>0.5</v>
@@ -2409,7 +2427,7 @@
         <v>16</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F36" s="16">
         <v>4</v>
@@ -2426,7 +2444,7 @@
         <v>16</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F37" s="16">
         <v>3</v>
@@ -2443,7 +2461,7 @@
         <v>15</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F38" s="16">
         <v>1.5</v>
@@ -2460,7 +2478,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F39" s="16">
         <v>1</v>
@@ -2477,74 +2495,164 @@
         <v>16</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F40" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="12"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="16"/>
+      <c r="B41" s="12">
+        <v>42284</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="12"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="16"/>
+      <c r="B42" s="12">
+        <v>42284</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="12"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="16"/>
+      <c r="B43" s="12">
+        <v>42284</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="12"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="16"/>
+      <c r="B44" s="12">
+        <v>42284</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="12"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="16"/>
+      <c r="B45" s="12">
+        <v>42284</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" s="16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="12"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="16"/>
+      <c r="B46" s="12">
+        <v>42284</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="12"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="16"/>
+      <c r="B47" s="12">
+        <v>42284</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="12"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="16"/>
+      <c r="B48" s="12">
+        <v>42284</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="12"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="16"/>
+      <c r="B49" s="12">
+        <v>42284</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" s="16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="12"/>

--- a/Équipe1.xlsx
+++ b/Équipe1.xlsx
@@ -1752,8 +1752,8 @@
   </sheetPr>
   <dimension ref="B3:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="J5" s="15">
         <f>SUMIF($C5:$C60,J$4,$F$5:$F$60)</f>
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="K5" s="15">
         <f t="shared" ref="K5:N5" si="0">SUMIF($C5:$C60,K$4,$F$5:$F$60)</f>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="M9" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" s="15">
         <f t="shared" si="1"/>
@@ -2549,7 +2549,7 @@
         <v>80</v>
       </c>
       <c r="F43" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">

--- a/Équipe1.xlsx
+++ b/Équipe1.xlsx
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="Code">Infos!$F$4:$F$10</definedName>
     <definedName name="Membres">Infos!$B$4:$B$9</definedName>
-    <definedName name="Semaine" localSheetId="2">'10-05'!$B$5:$F$60</definedName>
+    <definedName name="Semaine" localSheetId="2">'10-05'!$B$5:$F$62</definedName>
     <definedName name="Semaine">'09-28'!$B$5:$F$60</definedName>
     <definedName name="Temps">Infos!$I$4:$I$13</definedName>
   </definedNames>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="93">
   <si>
     <t>Membres</t>
   </si>
@@ -279,6 +279,30 @@
   </si>
   <si>
     <t>Prototype interface papier test</t>
+  </si>
+  <si>
+    <t>Continuer Equipe</t>
+  </si>
+  <si>
+    <t>Package jeu</t>
+  </si>
+  <si>
+    <t>Script creation</t>
+  </si>
+  <si>
+    <t>Script d'insertion</t>
+  </si>
+  <si>
+    <t>Prog Employer</t>
+  </si>
+  <si>
+    <t>BD faire des trucs</t>
+  </si>
+  <si>
+    <t>Package test</t>
+  </si>
+  <si>
+    <t>Interfaces</t>
   </si>
 </sst>
 </file>
@@ -1750,10 +1774,10 @@
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B3:P60"/>
+  <dimension ref="B3:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1819,28 +1843,28 @@
         <v>2</v>
       </c>
       <c r="J5" s="15">
-        <f>SUMIF($C5:$C60,J$4,$F$5:$F$60)</f>
-        <v>9.5</v>
+        <f>SUMIF($C5:$C62,J$4,$F$5:$F$62)</f>
+        <v>12.5</v>
       </c>
       <c r="K5" s="15">
-        <f t="shared" ref="K5:N5" si="0">SUMIF($C5:$C60,K$4,$F$5:$F$60)</f>
-        <v>10</v>
+        <f t="shared" ref="K5:N5" si="0">SUMIF($C5:$C62,K$4,$F$5:$F$62)</f>
+        <v>13</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N5" s="15">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="O5" s="15">
-        <f>SUMIF($C5:$C60,O$4,$F$5:$F$60)</f>
-        <v>10</v>
+        <f>SUMIF($C5:$C62,O$4,$F$5:$F$62)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="18" x14ac:dyDescent="0.35">
@@ -1946,24 +1970,24 @@
         <v>2</v>
       </c>
       <c r="J9" s="15">
-        <f>SUMIF($D5:$D60,J$8,$F$5:$F$60)</f>
-        <v>12.5</v>
+        <f>SUMIF($D5:$D62,J$8,$F$5:$F$62)</f>
+        <v>14.5</v>
       </c>
       <c r="K9" s="15">
-        <f t="shared" ref="K9:P9" si="1">SUMIF($D5:$D60,K$8,$F$5:$F$60)</f>
-        <v>5</v>
+        <f t="shared" ref="K9:P9" si="1">SUMIF($D5:$D62,K$8,$F$5:$F$62)</f>
+        <v>9.5</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M9" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N9" s="15">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="O9" s="15">
         <f t="shared" si="1"/>
@@ -2655,94 +2679,218 @@
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="12"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="16"/>
+      <c r="B50" s="12">
+        <v>42284</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="12"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="16"/>
+      <c r="B51" s="12">
+        <v>42284</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F51" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="12"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="16"/>
+      <c r="B52" s="12">
+        <v>42285</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="12"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="16"/>
+      <c r="B53" s="12">
+        <v>42285</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F53" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="12"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="16"/>
+      <c r="B54" s="12">
+        <v>42285</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F54" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="12"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="16"/>
+      <c r="B55" s="12">
+        <v>42285</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F55" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="12"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="16"/>
+      <c r="B56" s="12">
+        <v>42285</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="12"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="16"/>
+      <c r="B57" s="12">
+        <v>42285</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F57" s="16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="12"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="16"/>
+      <c r="B58" s="12">
+        <v>42285</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="12"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="16"/>
+      <c r="B59" s="12">
+        <v>42285</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F59" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="12"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="16"/>
+      <c r="B60" s="12">
+        <v>42285</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="12"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="16"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="12"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="16"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Temps" prompt="Entrez le temps accordée à cette tâche" sqref="F5:F60">
+  <dataValidations xWindow="400" yWindow="813" count="4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Temps" prompt="Entrez le temps accordée à cette tâche" sqref="F5:F62">
       <formula1>Temps</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Code Catégories" error="Saisir code dans la liste" promptTitle="Code de Catégories" prompt="Saisir code de la catégorie" sqref="D5:D60">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Code Catégories" error="Saisir code dans la liste" promptTitle="Code de Catégories" prompt="Saisir code de la catégorie" sqref="D5:D62">
       <formula1>Code</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Membre non valide" promptTitle="Membres" prompt="Saisir votre nom" sqref="C5:C60">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Membre non valide" promptTitle="Membres" prompt="Saisir votre nom" sqref="C5:C62">
       <formula1>Membres</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Code Catégories" error="Saisir code dans la liste" promptTitle="Code de Catégories" prompt="Saisir code de la catégorie" sqref="E5:E60"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Code Catégories" error="Saisir code dans la liste" promptTitle="Code de Catégories" prompt="Saisir code de la catégorie" sqref="E5:E62"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Équipe1.xlsx
+++ b/Équipe1.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="1" r:id="rId1"/>
     <sheet name="09-28" sheetId="2" r:id="rId2"/>
     <sheet name="10-05" sheetId="3" r:id="rId3"/>
     <sheet name="10-12" sheetId="4" r:id="rId4"/>
+    <sheet name="10-19" sheetId="5" r:id="rId5"/>
+    <sheet name="10-26" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Code">Infos!$F$4:$F$10</definedName>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="100">
   <si>
     <t>Membres</t>
   </si>
@@ -303,6 +305,27 @@
   </si>
   <si>
     <t>Interfaces</t>
+  </si>
+  <si>
+    <t>package 03</t>
+  </si>
+  <si>
+    <t>package 03 mais ca rien donner</t>
+  </si>
+  <si>
+    <t>test des trucs pour les finaliser</t>
+  </si>
+  <si>
+    <t>Prog employe</t>
+  </si>
+  <si>
+    <t>Révision de Employe, Genre, Mode</t>
+  </si>
+  <si>
+    <t>Prog Equipe</t>
+  </si>
+  <si>
+    <t>Prog equipe</t>
   </si>
 </sst>
 </file>
@@ -794,7 +817,7 @@
   <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1776,7 +1799,7 @@
   </sheetPr>
   <dimension ref="B3:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -2902,7 +2925,1265 @@
   <dimension ref="B3:P60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="45.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="12">
+        <v>42289</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="16">
+        <v>2</v>
+      </c>
+      <c r="J5" s="15">
+        <f>SUMIF($C5:$C60,J$4,$F$5:$F$60)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <f t="shared" ref="K5:N5" si="0">SUMIF($C5:$C60,K$4,$F$5:$F$60)</f>
+        <v>12</v>
+      </c>
+      <c r="L5" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N5" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="15">
+        <f>SUMIF($C5:$C60,O$4,$F$5:$F$60)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" s="12">
+        <v>42290</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="12">
+        <v>42293</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="12">
+        <v>42289</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="16">
+        <v>4</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="12">
+        <v>42290</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="J9" s="15">
+        <f>SUMIF($D5:$D60,J$8,$F$5:$F$60)</f>
+        <v>2</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" ref="K9:P9" si="1">SUMIF($D5:$D60,K$8,$F$5:$F$60)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="M9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="15">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="P9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
+        <v>42291</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="12">
+        <v>42292</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="12">
+        <v>42294</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="12">
+        <v>42292</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="12">
+        <v>42293</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="12">
+        <v>42295</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="12"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="12"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="12"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="12"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="12"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="12"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="12"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="12"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="12"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="12"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="12"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="12"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="12"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="12"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="12"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="12"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="12"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="12"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="12"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="12"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="12"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="12"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="12"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="12"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="12"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="12"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="12"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="12"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="12"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="12"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="12"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="12"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="12"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="12"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="12"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="16"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="12"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="16"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="12"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="16"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="12"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="16"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="12"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="16"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="12"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="16"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="12"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="16"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="12"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="16"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="12"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="16"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="12"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="16"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Membre non valide" promptTitle="Membres" prompt="Saisir votre nom" sqref="C5:C60">
+      <formula1>Membres</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Code Catégories" error="Saisir code dans la liste" promptTitle="Code de Catégories" prompt="Saisir code de la catégorie" sqref="D5:D60">
+      <formula1>Code</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Temps" prompt="Entrez le temps accordée à cette tâche" sqref="F5:F60">
+      <formula1>Temps</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:P60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="45.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="12">
+        <v>42296</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="16">
+        <v>5</v>
+      </c>
+      <c r="J5" s="15">
+        <f>SUMIF($C5:$C60,J$4,$F$5:$F$60)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <f t="shared" ref="K5:N5" si="0">SUMIF($C5:$C60,K$4,$F$5:$F$60)</f>
+        <v>11</v>
+      </c>
+      <c r="L5" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N5" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="15">
+        <f>SUMIF($C5:$C60,O$4,$F$5:$F$60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" s="12">
+        <v>42296</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="12">
+        <v>42297</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="16">
+        <v>4</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="12">
+        <v>42296</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="16">
+        <v>5</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="12">
+        <v>42296</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="J9" s="15">
+        <f>SUMIF($D5:$D60,J$8,$F$5:$F$60)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" ref="K9:P9" si="1">SUMIF($D5:$D60,K$8,$F$5:$F$60)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="M9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
+        <v>42297</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="12"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="12"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="12"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="12"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="12"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="12"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="12"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="12"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="12"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="12"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="12"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="12"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="12"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="12"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="12"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="12"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="12"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="12"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="12"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="12"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="12"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="12"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="12"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="12"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="12"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="12"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="12"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="12"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="12"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="12"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="12"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="12"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="12"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="12"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="12"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="12"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="12"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="12"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="12"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="16"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="12"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="16"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="12"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="16"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="12"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="16"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="12"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="16"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="12"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="16"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="12"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="16"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="12"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="16"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="12"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="16"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="12"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="16"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Temps" prompt="Entrez le temps accordée à cette tâche" sqref="F5:F60">
+      <formula1>Temps</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Code Catégories" error="Saisir code dans la liste" promptTitle="Code de Catégories" prompt="Saisir code de la catégorie" sqref="D5:D60">
+      <formula1>Code</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Membre non valide" promptTitle="Membres" prompt="Saisir votre nom" sqref="C5:C60">
+      <formula1>Membres</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:P60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Équipe1.xlsx
+++ b/Équipe1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="129">
   <si>
     <t>Membres</t>
   </si>
@@ -326,6 +326,93 @@
   </si>
   <si>
     <t>Prog equipe</t>
+  </si>
+  <si>
+    <t>Script des vues et des fonctions</t>
+  </si>
+  <si>
+    <t>Prog jeu</t>
+  </si>
+  <si>
+    <t>Rerouler les scripts, arranger des triggers, CRE_Package_Test commencé et CTE_Package_Test aussi</t>
+  </si>
+  <si>
+    <t>Arranger script insertion complet jeu et rouler scripts</t>
+  </si>
+  <si>
+    <t>arranger script insertion personnel et continuer CRE&amp;CTE</t>
+  </si>
+  <si>
+    <t>gossage personnel</t>
+  </si>
+  <si>
+    <t>Arranger classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finition package 1 </t>
+  </si>
+  <si>
+    <t>interface cas de test et projet</t>
+  </si>
+  <si>
+    <t>SCRUM</t>
+  </si>
+  <si>
+    <t>Apprendre ASP</t>
+  </si>
+  <si>
+    <t>Arranger BD</t>
+  </si>
+  <si>
+    <t>Répondre aux questions des équipiers</t>
+  </si>
+  <si>
+    <t>Test interface apprentissage ASP</t>
+  </si>
+  <si>
+    <t>Programmer groupe d'utilisateur</t>
+  </si>
+  <si>
+    <t>DCC-DCR package3</t>
+  </si>
+  <si>
+    <t>Fin des test du package 1 pis un peu du package 2</t>
+  </si>
+  <si>
+    <t>Correction de DN</t>
+  </si>
+  <si>
+    <t>Pour le package 3</t>
+  </si>
+  <si>
+    <t>Package3</t>
+  </si>
+  <si>
+    <t>Diviser les requetes du package 1</t>
+  </si>
+  <si>
+    <t>Plus d'analyse sur le package 3(DN,DC, pis interface)</t>
+  </si>
+  <si>
+    <t>Rencontre pour package 3</t>
+  </si>
+  <si>
+    <t>Prog Authentification</t>
+  </si>
+  <si>
+    <t>Prog Utilisateur</t>
+  </si>
+  <si>
+    <t>Concorder BD et Prog (fixer après rencontre client)</t>
+  </si>
+  <si>
+    <t>Prog utilisateurs</t>
+  </si>
+  <si>
+    <t>Finition prog Utilisateurs</t>
+  </si>
+  <si>
+    <t>Finition prog authentification</t>
   </si>
 </sst>
 </file>
@@ -491,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -510,6 +597,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1799,7 +1898,7 @@
   </sheetPr>
   <dimension ref="B3:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -2924,13 +3023,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="45.88671875" customWidth="1"/>
+    <col min="5" max="5" width="47.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2995,7 +3094,7 @@
       </c>
       <c r="L5" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" si="0"/>
@@ -3003,7 +3102,7 @@
       </c>
       <c r="N5" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O5" s="15">
         <f>SUMIF($C5:$C60,O$4,$F$5:$F$60)</f>
@@ -3118,11 +3217,11 @@
       </c>
       <c r="K9" s="15">
         <f t="shared" ref="K9:P9" si="1">SUMIF($D5:$D60,K$8,$F$5:$F$60)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="M9" s="15">
         <f t="shared" si="1"/>
@@ -3244,95 +3343,225 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="16"/>
+      <c r="B16" s="12">
+        <v>42287</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="16"/>
+      <c r="B17" s="12">
+        <v>42287</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="16"/>
+      <c r="B18" s="12">
+        <v>42288</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="16"/>
+      <c r="B19" s="12">
+        <v>42291</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="18">
+        <v>42291</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="21">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="16"/>
+      <c r="B21" s="12">
+        <v>42292</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="16"/>
+      <c r="B22" s="12">
+        <v>42292</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="16"/>
+      <c r="B23" s="12">
+        <v>42293</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="16"/>
+      <c r="B24" s="12">
+        <v>42293</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="16"/>
+      <c r="B25" s="12">
+        <v>42290</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="16"/>
+      <c r="B26" s="12">
+        <v>42294</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="16"/>
+      <c r="B27" s="12">
+        <v>42294</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="16"/>
+      <c r="B28" s="12">
+        <v>42290</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="12"/>
@@ -3576,10 +3805,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:P60"/>
+  <dimension ref="B3:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3640,28 +3869,28 @@
         <v>5</v>
       </c>
       <c r="J5" s="15">
-        <f>SUMIF($C5:$C60,J$4,$F$5:$F$60)</f>
-        <v>0</v>
+        <f>SUMIF($C5:$C59,J$4,$F$5:$F$59)</f>
+        <v>4</v>
       </c>
       <c r="K5" s="15">
-        <f t="shared" ref="K5:N5" si="0">SUMIF($C5:$C60,K$4,$F$5:$F$60)</f>
-        <v>11</v>
+        <f>SUMIF($C5:$C59,K$4,$F$5:$F$59)</f>
+        <v>26.5</v>
       </c>
       <c r="L5" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUMIF($C5:$C59,L$4,$F$5:$F$59)</f>
+        <v>20</v>
       </c>
       <c r="M5" s="15">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUMIF($C5:$C59,M$4,$F$5:$F$59)</f>
+        <v>17.5</v>
       </c>
       <c r="N5" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUMIF($C5:$C59,N$4,$F$5:$F$59)</f>
+        <v>12</v>
       </c>
       <c r="O5" s="15">
-        <f>SUMIF($C5:$C60,O$4,$F$5:$F$60)</f>
-        <v>0</v>
+        <f>SUMIF($C5:$C59,O$4,$F$5:$F$59)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="18" x14ac:dyDescent="0.35">
@@ -3767,31 +3996,31 @@
         <v>1</v>
       </c>
       <c r="J9" s="15">
-        <f>SUMIF($D5:$D60,J$8,$F$5:$F$60)</f>
+        <f>SUMIF($D5:$D59,J$8,$F$5:$F$59)</f>
+        <v>6.5</v>
+      </c>
+      <c r="K9" s="15">
+        <f>SUMIF($D5:$D59,K$8,$F$5:$F$59)</f>
+        <v>1.5</v>
+      </c>
+      <c r="L9" s="15">
+        <f>SUMIF($D5:$D59,L$8,$F$5:$F$59)</f>
+        <v>60</v>
+      </c>
+      <c r="M9" s="15">
+        <f>SUMIF($D5:$D59,M$8,$F$5:$F$59)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="15">
-        <f t="shared" ref="K9:P9" si="1">SUMIF($D5:$D60,K$8,$F$5:$F$60)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="15">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="M9" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="N9" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUMIF($D5:$D59,N$8,$F$5:$F$59)</f>
+        <v>3.5</v>
       </c>
       <c r="O9" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUMIF($D5:$D59,O$8,$F$5:$F$59)</f>
+        <v>23.5</v>
       </c>
       <c r="P9" s="15">
-        <f t="shared" si="1"/>
+        <f>SUMIF($D5:$D59,P$8,$F$5:$F$59)</f>
         <v>0</v>
       </c>
     </row>
@@ -3813,305 +4042,735 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="16"/>
+      <c r="B11" s="12">
+        <v>42298</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="16"/>
+      <c r="B12" s="12">
+        <v>42298</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="16"/>
+      <c r="B13" s="12">
+        <v>42299</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="16"/>
+      <c r="B14" s="12">
+        <v>42296</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="16"/>
+      <c r="B15" s="12">
+        <v>42296</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="16"/>
+      <c r="B16" s="12">
+        <v>42296</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="16"/>
+      <c r="B17" s="12">
+        <v>42297</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="16"/>
+      <c r="B18" s="12">
+        <v>42297</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="16"/>
+      <c r="B19" s="12">
+        <v>42298</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="16"/>
+      <c r="B20" s="12">
+        <v>42298</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="16"/>
+      <c r="B21" s="12">
+        <v>42298</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="16"/>
+      <c r="B22" s="12">
+        <v>42299</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="16"/>
+      <c r="B23" s="12">
+        <v>42297</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="16"/>
+      <c r="B24" s="12">
+        <v>42296</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="16"/>
+      <c r="B25" s="12">
+        <v>42298</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="16"/>
+      <c r="B26" s="12">
+        <v>42297</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="16"/>
+      <c r="B27" s="12">
+        <v>42296</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="16"/>
+      <c r="B28" s="12">
+        <v>42298</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="16"/>
+      <c r="B29" s="12">
+        <v>42297</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="16"/>
+      <c r="B30" s="12">
+        <v>42296</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="16"/>
+      <c r="B31" s="12">
+        <v>42298</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="16"/>
+      <c r="B32" s="12">
+        <v>42297</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="12"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="16"/>
+      <c r="B33" s="12">
+        <v>42296</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="12"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="16"/>
+      <c r="B34" s="12">
+        <v>42298</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="12"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="16"/>
+      <c r="B35" s="12">
+        <v>42297</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="12"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="16"/>
+      <c r="B36" s="12">
+        <v>42296</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="12"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="16"/>
+      <c r="B37" s="12">
+        <v>42298</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="12"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="16"/>
+      <c r="B38" s="12">
+        <v>42297</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="12"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="16"/>
+      <c r="B39" s="12">
+        <v>42296</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="12"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="16"/>
+      <c r="B40" s="12">
+        <v>42298</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" s="16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="12"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="16"/>
+      <c r="B41" s="12">
+        <v>42299</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="16">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="12"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="16"/>
+      <c r="B42" s="12">
+        <v>42296</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="12"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="16"/>
+      <c r="B43" s="12">
+        <v>42297</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="12"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="16"/>
+      <c r="B44" s="12">
+        <v>42297</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" s="16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="12"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="16"/>
+      <c r="B45" s="12">
+        <v>42297</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" s="16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="12"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="16"/>
+      <c r="B46" s="12">
+        <v>42298</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="12"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="16"/>
+      <c r="B47" s="12">
+        <v>42298</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="12"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="16"/>
+      <c r="B48" s="12">
+        <v>42299</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="12"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="16"/>
+      <c r="B49" s="12">
+        <v>42299</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="12"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="16"/>
+      <c r="B50" s="12">
+        <v>42296</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="12"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="16"/>
+      <c r="B51" s="12">
+        <v>42297</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" s="16">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="12"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="16"/>
+      <c r="B52" s="12">
+        <v>42298</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="12"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="16"/>
+      <c r="B53" s="12">
+        <v>42299</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F53" s="16">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="12"/>
@@ -4155,22 +4814,15 @@
       <c r="E59" s="1"/>
       <c r="F59" s="16"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="12"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="16"/>
-    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Temps" prompt="Entrez le temps accordée à cette tâche" sqref="F5:F60">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Temps" prompt="Entrez le temps accordée à cette tâche" sqref="F5:F59">
       <formula1>Temps</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Code Catégories" error="Saisir code dans la liste" promptTitle="Code de Catégories" prompt="Saisir code de la catégorie" sqref="D5:D60">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Code Catégories" error="Saisir code dans la liste" promptTitle="Code de Catégories" prompt="Saisir code de la catégorie" sqref="D5:D59">
       <formula1>Code</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Membre non valide" promptTitle="Membres" prompt="Saisir votre nom" sqref="C5:C60">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Membre non valide" promptTitle="Membres" prompt="Saisir votre nom" sqref="C5:C59">
       <formula1>Membres</formula1>
     </dataValidation>
   </dataValidations>

--- a/Équipe1.xlsx
+++ b/Équipe1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="10-12" sheetId="4" r:id="rId4"/>
     <sheet name="10-19" sheetId="5" r:id="rId5"/>
     <sheet name="10-26" sheetId="6" r:id="rId6"/>
+    <sheet name="11-02" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Code">Infos!$F$4:$F$10</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="140">
   <si>
     <t>Membres</t>
   </si>
@@ -413,6 +414,39 @@
   </si>
   <si>
     <t>Finition prog authentification</t>
+  </si>
+  <si>
+    <t>frmDetCasTest ASP</t>
+  </si>
+  <si>
+    <t>Détails Cas test et projet ASP</t>
+  </si>
+  <si>
+    <t>Prep Recontre + ASP</t>
+  </si>
+  <si>
+    <t>Prog Utilisateurs</t>
+  </si>
+  <si>
+    <t>Prog Group</t>
+  </si>
+  <si>
+    <t>Finaliser pour recontre</t>
+  </si>
+  <si>
+    <t>Description narrative</t>
+  </si>
+  <si>
+    <t>Verification</t>
+  </si>
+  <si>
+    <t>Recontre Release sprint 2</t>
+  </si>
+  <si>
+    <t>Travail Doc release sprint 2</t>
+  </si>
+  <si>
+    <t>Faire Tutorial ASP.NET</t>
   </si>
 </sst>
 </file>
@@ -3024,7 +3058,7 @@
   <dimension ref="B3:P60"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3105,7 +3139,7 @@
         <v>14</v>
       </c>
       <c r="O5" s="15">
-        <f>SUMIF($C5:$C60,O$4,$F$5:$F$60)</f>
+        <f>SUMIF($C5:$C70,O$4,$F$5:$F$70)</f>
         <v>4.5</v>
       </c>
     </row>
@@ -3805,10 +3839,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:P59"/>
+  <dimension ref="B3:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3869,28 +3903,28 @@
         <v>5</v>
       </c>
       <c r="J5" s="15">
-        <f>SUMIF($C5:$C59,J$4,$F$5:$F$59)</f>
-        <v>4</v>
+        <f>SUMIF($C5:$C70,J$4,$F$5:$F$70)</f>
+        <v>21.5</v>
       </c>
       <c r="K5" s="15">
-        <f>SUMIF($C5:$C59,K$4,$F$5:$F$59)</f>
+        <f>SUMIF($C5:$C70,K$4,$F$5:$F$70)</f>
         <v>26.5</v>
       </c>
       <c r="L5" s="15">
-        <f>SUMIF($C5:$C59,L$4,$F$5:$F$59)</f>
-        <v>20</v>
+        <f>SUMIF($C5:$C70,L$4,$F$5:$F$70)</f>
+        <v>27.5</v>
       </c>
       <c r="M5" s="15">
-        <f>SUMIF($C5:$C59,M$4,$F$5:$F$59)</f>
-        <v>17.5</v>
+        <f>SUMIF($C5:$C70,M$4,$F$5:$F$70)</f>
+        <v>27</v>
       </c>
       <c r="N5" s="15">
-        <f>SUMIF($C5:$C59,N$4,$F$5:$F$59)</f>
-        <v>12</v>
+        <f>SUMIF($C5:$C70,N$4,$F$5:$F$70)</f>
+        <v>13</v>
       </c>
       <c r="O5" s="15">
-        <f>SUMIF($C5:$C59,O$4,$F$5:$F$59)</f>
-        <v>15</v>
+        <f>SUMIF($C5:$C70,O$4,$F$5:$F$70)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="18" x14ac:dyDescent="0.35">
@@ -3996,31 +4030,31 @@
         <v>1</v>
       </c>
       <c r="J9" s="15">
-        <f>SUMIF($D5:$D59,J$8,$F$5:$F$59)</f>
-        <v>6.5</v>
+        <f>SUMIF($D5:$D70,J$8,$F$5:$F$70)</f>
+        <v>14</v>
       </c>
       <c r="K9" s="15">
-        <f>SUMIF($D5:$D59,K$8,$F$5:$F$59)</f>
+        <f>SUMIF($D5:$D70,K$8,$F$5:$F$70)</f>
+        <v>8</v>
+      </c>
+      <c r="L9" s="15">
+        <f>SUMIF($D5:$D70,L$8,$F$5:$F$70)</f>
+        <v>84</v>
+      </c>
+      <c r="M9" s="15">
+        <f>SUMIF($D5:$D70,M$8,$F$5:$F$70)</f>
         <v>1.5</v>
       </c>
-      <c r="L9" s="15">
-        <f>SUMIF($D5:$D59,L$8,$F$5:$F$59)</f>
-        <v>60</v>
-      </c>
-      <c r="M9" s="15">
-        <f>SUMIF($D5:$D59,M$8,$F$5:$F$59)</f>
-        <v>0</v>
-      </c>
       <c r="N9" s="15">
-        <f>SUMIF($D5:$D59,N$8,$F$5:$F$59)</f>
+        <f>SUMIF($D5:$D70,N$8,$F$5:$F$70)</f>
         <v>3.5</v>
       </c>
       <c r="O9" s="15">
-        <f>SUMIF($D5:$D59,O$8,$F$5:$F$59)</f>
+        <f>SUMIF($D5:$D70,O$8,$F$5:$F$70)</f>
         <v>23.5</v>
       </c>
       <c r="P9" s="15">
-        <f>SUMIF($D5:$D59,P$8,$F$5:$F$59)</f>
+        <f>SUMIF($D5:$D70,P$8,$F$5:$F$70)</f>
         <v>0</v>
       </c>
     </row>
@@ -4773,56 +4807,303 @@
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="12"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="16"/>
+      <c r="B54" s="12">
+        <v>42301</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="12"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="16"/>
+      <c r="B55" s="12">
+        <v>42302</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F55" s="16">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="12"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="16"/>
+      <c r="B56" s="12">
+        <v>42301</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F56" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="12"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="16"/>
+      <c r="B57" s="12">
+        <v>42301</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F57" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="12"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="16"/>
+      <c r="B58" s="12">
+        <v>42301</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F58" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="12"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="16"/>
+      <c r="B59" s="12">
+        <v>42302</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F59" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="12">
+        <v>42301</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="12">
+        <v>42302</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F61" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="12">
+        <v>42301</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="12">
+        <v>42296</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F63" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="12">
+        <v>42297</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" s="16">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" s="12">
+        <v>42299</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F65" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" s="12">
+        <v>42297</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F66" s="16">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" s="12">
+        <v>42298</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F67" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="12">
+        <v>42298</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" s="12">
+        <v>42298</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" s="12">
+        <v>42298</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F70" s="16">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Temps" prompt="Entrez le temps accordée à cette tâche" sqref="F5:F59">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Temps" prompt="Entrez le temps accordée à cette tâche" sqref="F5:F70">
       <formula1>Temps</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Code Catégories" error="Saisir code dans la liste" promptTitle="Code de Catégories" prompt="Saisir code de la catégorie" sqref="D5:D59">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Code Catégories" error="Saisir code dans la liste" promptTitle="Code de Catégories" prompt="Saisir code de la catégorie" sqref="D5:D70">
       <formula1>Code</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Membre non valide" promptTitle="Membres" prompt="Saisir votre nom" sqref="C5:C59">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Membre non valide" promptTitle="Membres" prompt="Saisir votre nom" sqref="C5:C70">
       <formula1>Membres</formula1>
     </dataValidation>
   </dataValidations>
@@ -4834,8 +5115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4880,42 +5161,62 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="12"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="12">
+        <v>42303</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="16">
+        <v>4.5</v>
+      </c>
       <c r="J5" s="15">
         <f>SUMIF($C5:$C60,J$4,$F$5:$F$60)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K5" s="15">
         <f t="shared" ref="K5:N5" si="0">SUMIF($C5:$C60,K$4,$F$5:$F$60)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N5" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O5" s="15">
         <f>SUMIF($C5:$C60,O$4,$F$5:$F$60)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="12"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="12">
+        <v>42303</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="16">
+        <v>2</v>
+      </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="14"/>
@@ -4925,11 +5226,21 @@
       <c r="P6" s="14"/>
     </row>
     <row r="7" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="12"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="12">
+        <v>42303</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -4939,11 +5250,21 @@
       <c r="P7" s="14"/>
     </row>
     <row r="8" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="12"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="16"/>
+      <c r="B8" s="12">
+        <v>42303</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="16">
+        <v>2</v>
+      </c>
       <c r="J8" s="15" t="s">
         <v>15</v>
       </c>
@@ -4967,11 +5288,21 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="12"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="16"/>
+      <c r="B9" s="12">
+        <v>42303</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="16">
+        <v>5</v>
+      </c>
       <c r="J9" s="15">
         <f>SUMIF($D5:$D60,J$8,$F$5:$F$60)</f>
         <v>0</v>
@@ -4982,15 +5313,15 @@
       </c>
       <c r="L9" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="M9" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N9" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O9" s="15">
         <f t="shared" si="1"/>
@@ -5002,95 +5333,225 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="16"/>
+      <c r="B10" s="12">
+        <v>42304</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="16"/>
+      <c r="B11" s="12">
+        <v>42304</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="16"/>
+      <c r="B12" s="12">
+        <v>42304</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="16"/>
+      <c r="B13" s="12">
+        <v>42304</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="16"/>
+      <c r="B14" s="12">
+        <v>42304</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="16"/>
+      <c r="B15" s="12">
+        <v>42304</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="16"/>
+      <c r="B16" s="12">
+        <v>42304</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="16"/>
+      <c r="B17" s="12">
+        <v>42304</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="16"/>
+      <c r="B18" s="12">
+        <v>42304</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="16"/>
+      <c r="B19" s="12">
+        <v>42304</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="16"/>
+      <c r="B20" s="12">
+        <v>42304</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="16"/>
+      <c r="B21" s="12">
+        <v>42304</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="16"/>
+      <c r="B22" s="12">
+        <v>42305</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="12"/>
@@ -5372,4 +5833,548 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:P60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="45.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="12"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="16"/>
+      <c r="J5" s="15">
+        <f>SUMIF($C5:$C60,J$4,$F$5:$F$60)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <f t="shared" ref="K5:N5" si="0">SUMIF($C5:$C60,K$4,$F$5:$F$60)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="15">
+        <f>SUMIF($C5:$C60,O$4,$F$5:$F$60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" s="12"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="16"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="12"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="16"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="12"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="16"/>
+      <c r="J8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="12"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="16"/>
+      <c r="J9" s="15">
+        <f>SUMIF($D5:$D60,J$8,$F$5:$F$60)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" ref="K9:P9" si="1">SUMIF($D5:$D60,K$8,$F$5:$F$60)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="12"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="12"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="12"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="12"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="12"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="12"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="12"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="12"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="12"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="12"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="12"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="12"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="12"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="12"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="12"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="12"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="12"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="12"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="12"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="12"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="12"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="12"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="12"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="12"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="12"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="12"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="12"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="12"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="12"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="12"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="12"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="12"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="12"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="12"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="12"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="12"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="12"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="12"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="12"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="12"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="16"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="12"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="16"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="12"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="16"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="12"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="16"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="12"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="16"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="12"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="16"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="12"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="16"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="12"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="16"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="12"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="16"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="12"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="16"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Temps" prompt="Entrez le temps accordée à cette tâche" sqref="F5:F60">
+      <formula1>Temps</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Code Catégories" error="Saisir code dans la liste" promptTitle="Code de Catégories" prompt="Saisir code de la catégorie" sqref="D5:D60">
+      <formula1>Code</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Membre non valide" promptTitle="Membres" prompt="Saisir votre nom" sqref="C5:C60">
+      <formula1>Membres</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>